--- a/阿牧颗粒加工作坊/养殖服务/繁殖买卖配种记录表.xlsx
+++ b/阿牧颗粒加工作坊/养殖服务/繁殖买卖配种记录表.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="肉牛育肥记录表" sheetId="3" r:id="rId1"/>
     <sheet name="活牛买卖记录" sheetId="2" r:id="rId2"/>
-    <sheet name="肉牛编号详情表" sheetId="7" r:id="rId3"/>
-    <sheet name="活牛买卖记录范表" sheetId="4" r:id="rId4"/>
-    <sheet name="日常消毒记录" sheetId="5" r:id="rId5"/>
-    <sheet name="繁殖母牛生产卡" sheetId="6" r:id="rId6"/>
+    <sheet name="活牛档案表" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
+    <sheet name="活牛买卖记录范表" sheetId="4" r:id="rId5"/>
+    <sheet name="日常消毒记录" sheetId="5" r:id="rId6"/>
+    <sheet name="繁殖母牛生产卡" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="139">
   <si>
     <t>活牛买卖记录表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,10 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配种情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>繁殖母牛编号详情表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,6 +476,157 @@
   </si>
   <si>
     <t>2021年 6月 12日 农历:辛丑年五月初三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公种编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白公牛22013001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子系编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母系编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父系编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如联系人及电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁殖母牛生产卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁殖牛族谱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东槽北二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口蹄疫育苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年 9月 12日 农历:辛丑年八月初三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛟河市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未产仔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产仔2的编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产仔1的编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产仔3的编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产仔4的编号</t>
+  </si>
+  <si>
+    <t>产仔5的编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产仔6的编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产仔7的编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产仔8的编号</t>
+  </si>
+  <si>
+    <t>产仔9的编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产仔10的编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买牛无此项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受孕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉牛生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>公牛</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月             年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉牛生产卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公/母编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粘贴正左斜视照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粘贴侧面照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粘贴后右斜视照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活牛档案表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活牛档案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,9 +635,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,6 +743,44 @@
       <sz val="32"/>
       <color theme="1"/>
       <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="华文新魏"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="90"/>
+      <color theme="1"/>
+      <name val="华文新魏"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -819,21 +1005,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -846,7 +1021,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -857,20 +1034,33 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </bottom>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,15 +1104,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,38 +1113,254 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -974,196 +1371,32 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,13 +1420,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>7012</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>926288</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>83819</xdr:rowOff>
@@ -1220,7 +1453,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3839872" y="746760"/>
+          <a:off x="3931312" y="746760"/>
           <a:ext cx="2809036" cy="2194559"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1242,16 +1475,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>68579</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>80388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>921992</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1297,16 +1530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>944230</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>184915</xdr:rowOff>
+      <xdr:rowOff>192535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1635,72 +1868,72 @@
     <col min="12" max="12" width="5.77734375" style="8" customWidth="1"/>
     <col min="13" max="13" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.77734375" style="8" customWidth="1"/>
-    <col min="16" max="16" width="5.77734375" style="24" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" style="19" customWidth="1"/>
     <col min="17" max="17" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="5.77734375" style="8" customWidth="1"/>
     <col min="21" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="73"/>
     </row>
     <row r="2" spans="1:20" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="26" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21" t="s">
+      <c r="L2" s="69"/>
+      <c r="M2" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="40" t="s">
+      <c r="N2" s="69"/>
+      <c r="O2" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="21" t="s">
+      <c r="P2" s="75"/>
+      <c r="Q2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="29"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="70"/>
     </row>
     <row r="3" spans="1:20" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1727,7 +1960,7 @@
       <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="27"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1740,10 +1973,10 @@
       <c r="N3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="24" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="6" t="s">
@@ -1755,601 +1988,601 @@
       <c r="S3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="T3" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
+    <row r="4" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
         <v>44503</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="15">
         <v>2021110301</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="15">
         <v>51</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="15">
         <v>2</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="15">
         <v>500</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="15">
         <v>12800</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="15">
         <v>21110501</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="18">
         <v>44504</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="16">
         <v>500</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="18">
         <v>44835</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="15">
         <v>1500</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="15">
         <f>N4-L4</f>
         <v>1000</v>
       </c>
-      <c r="P4" s="43">
+      <c r="P4" s="26">
         <v>3.02</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="18">
         <v>44835</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="15">
         <v>1500</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="15">
         <v>23500</v>
       </c>
-      <c r="T4" s="44">
+      <c r="T4" s="27">
         <f>S4-H4</f>
         <v>10700</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="44"/>
-    </row>
-    <row r="6" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="44"/>
-    </row>
-    <row r="7" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="44"/>
-    </row>
-    <row r="8" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="44"/>
-    </row>
-    <row r="9" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="44"/>
-    </row>
-    <row r="10" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="44"/>
-    </row>
-    <row r="11" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="44"/>
-    </row>
-    <row r="12" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="44"/>
-    </row>
-    <row r="13" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="44"/>
-    </row>
-    <row r="14" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="44"/>
-    </row>
-    <row r="15" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="44"/>
-    </row>
-    <row r="16" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="44"/>
-    </row>
-    <row r="17" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="44"/>
-    </row>
-    <row r="18" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="44"/>
-    </row>
-    <row r="19" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="44"/>
-    </row>
-    <row r="20" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="44"/>
-    </row>
-    <row r="21" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="44"/>
-    </row>
-    <row r="22" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="44"/>
-    </row>
-    <row r="23" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="44"/>
-    </row>
-    <row r="24" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="44"/>
-    </row>
-    <row r="25" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="44"/>
-    </row>
-    <row r="26" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="44"/>
-    </row>
-    <row r="27" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="44"/>
-    </row>
-    <row r="28" spans="1:20" s="20" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="49"/>
+    <row r="5" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="27"/>
+    </row>
+    <row r="6" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="27"/>
+    </row>
+    <row r="7" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="27"/>
+    </row>
+    <row r="8" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="27"/>
+    </row>
+    <row r="9" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="27"/>
+    </row>
+    <row r="10" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="27"/>
+    </row>
+    <row r="11" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="27"/>
+    </row>
+    <row r="12" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="27"/>
+    </row>
+    <row r="13" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="27"/>
+    </row>
+    <row r="14" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="27"/>
+    </row>
+    <row r="15" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="27"/>
+    </row>
+    <row r="16" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="27"/>
+    </row>
+    <row r="17" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="27"/>
+    </row>
+    <row r="18" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="27"/>
+    </row>
+    <row r="19" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="27"/>
+    </row>
+    <row r="20" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="27"/>
+    </row>
+    <row r="21" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="27"/>
+    </row>
+    <row r="22" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="27"/>
+    </row>
+    <row r="23" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="27"/>
+    </row>
+    <row r="24" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="27"/>
+    </row>
+    <row r="25" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="27"/>
+    </row>
+    <row r="26" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="27"/>
+    </row>
+    <row r="27" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="27"/>
+    </row>
+    <row r="28" spans="1:20" s="17" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2390,20 +2623,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="48.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2689,596 +2922,1504 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="3" customWidth="1"/>
-    <col min="2" max="4" width="13.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.77734375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="4" width="12.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3.88671875" style="3" customWidth="1"/>
+    <col min="7" max="9" width="13.77734375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:12" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="103"/>
+    </row>
+    <row r="2" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="104">
+        <v>21110301</v>
+      </c>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="94"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="94"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="94"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="94"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="94"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="94"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="53">
+        <v>6000</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="94"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="94"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="53">
+        <v>245</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="86"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="94"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="53">
+        <v>1</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="94"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="94"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="94"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="94"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="53">
+        <v>6000</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="86"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="94"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="94"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="53">
+        <v>345</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="94"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="53">
+        <v>3</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="86"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="94"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="94"/>
+    </row>
+    <row r="20" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="94"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="84"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="94"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="84"/>
+      <c r="F22" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="94"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="84"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="94"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="84"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="94"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="94"/>
+    </row>
+    <row r="26" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="96"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="94"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="46">
+        <v>44308</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="36">
+        <v>44591</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="96"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="94"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="94"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="94"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="94"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="94"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="94"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="80"/>
+      <c r="H33" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="80">
+        <v>2021</v>
+      </c>
+      <c r="G34" s="80"/>
+      <c r="H34" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I34" s="55"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="55"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="55"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="55"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="55"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="55"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="55"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="55"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="55"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="55"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="55"/>
+    </row>
+    <row r="45" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="65"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="68"/>
+    </row>
+    <row r="46" spans="1:9" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="103"/>
+    </row>
+    <row r="47" spans="1:9" ht="25.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="88">
-        <v>21110301</v>
-      </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="22" t="s">
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="89"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="G47" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="H47" s="97"/>
+      <c r="I47" s="98"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="89"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="B48" s="97"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="98"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="55" t="s">
+      <c r="B49" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="89"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="D49" s="100"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="98"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="98"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="98"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="53"/>
+      <c r="C52" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="98"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="97"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="98"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="53"/>
+      <c r="C54" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="98"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="53"/>
+      <c r="C55" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="97"/>
+      <c r="I55" s="98"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="97"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="97"/>
+      <c r="H56" s="97"/>
+      <c r="I56" s="98"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="89"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="89"/>
-      <c r="K6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="87">
-        <v>6000</v>
-      </c>
-      <c r="C7" s="86" t="s">
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="H57" s="97"/>
+      <c r="I57" s="98"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="95"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="97"/>
+      <c r="H58" s="97"/>
+      <c r="I58" s="98"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="53"/>
+      <c r="C59" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="89"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="89"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="87">
-        <v>245</v>
-      </c>
-      <c r="C9" s="86" t="s">
+      <c r="D59" s="100"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="97"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="98"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="97"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="97"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="97"/>
+      <c r="H60" s="97"/>
+      <c r="I60" s="98"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="53"/>
+      <c r="C61" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="89"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="87">
-        <v>1</v>
-      </c>
-      <c r="C10" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="89"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="89"/>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="D61" s="100"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="97"/>
+      <c r="H61" s="97"/>
+      <c r="I61" s="98"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="53"/>
+      <c r="C62" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="100"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="97"/>
+      <c r="I62" s="98"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="89"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="89"/>
-      <c r="K13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="89"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="89"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="89"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="89"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="83"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="89"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="89"/>
-    </row>
-    <row r="20" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="89"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="89"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="22" t="s">
+      <c r="B63" s="97"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="96"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="98"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="80"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="96"/>
+      <c r="G64" s="97"/>
+      <c r="H64" s="97"/>
+      <c r="I64" s="98"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="35"/>
+      <c r="C65" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="95"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="96"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="98"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="98"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="64"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="89"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="89"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="89"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="89"/>
-    </row>
-    <row r="26" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="89"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="89"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="89"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="89"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="89"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="89"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="15" t="s">
+      <c r="G67" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="H67" s="97"/>
+      <c r="I67" s="98"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="64"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="97"/>
+      <c r="H68" s="97"/>
+      <c r="I68" s="98"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="80"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="96"/>
+      <c r="G69" s="97"/>
+      <c r="H69" s="97"/>
+      <c r="I69" s="98"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" s="96"/>
+      <c r="G70" s="97"/>
+      <c r="H70" s="97"/>
+      <c r="I70" s="98"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="46"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="96"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="97"/>
+      <c r="I71" s="98"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="38"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="96"/>
+      <c r="G72" s="97"/>
+      <c r="H72" s="97"/>
+      <c r="I72" s="98"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="38"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="96"/>
+      <c r="G73" s="97"/>
+      <c r="H73" s="97"/>
+      <c r="I73" s="98"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="38"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="97"/>
+      <c r="H74" s="97"/>
+      <c r="I74" s="98"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="96"/>
+      <c r="G75" s="97"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="98"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="38"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="96"/>
+      <c r="G76" s="97"/>
+      <c r="H76" s="97"/>
+      <c r="I76" s="98"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="38"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" s="80"/>
+      <c r="H77" s="80"/>
+      <c r="I77" s="94"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="38"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="94"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="9" t="s">
+      <c r="G78" s="80"/>
+      <c r="H78" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" s="68" t="s">
+      <c r="I78" s="55" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="74">
-        <v>44308</v>
-      </c>
-      <c r="B34" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="56">
-        <v>44591</v>
-      </c>
-      <c r="D34" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="9">
-        <v>2021</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="68"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="68"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="68"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="68"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="68"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="68"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="68"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="68"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="68"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="68"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="68"/>
-    </row>
-    <row r="45" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="90"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="93"/>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="38"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="95"/>
+      <c r="G79" s="95"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="39"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="38"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="80"/>
+      <c r="G80" s="80"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="55"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="38"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="80"/>
+      <c r="G81" s="80"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="55"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="38"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="80"/>
+      <c r="G82" s="80"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="55"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="38"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="80"/>
+      <c r="G83" s="80"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="55"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="38"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="80"/>
+      <c r="G84" s="80"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="55"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="38"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="80"/>
+      <c r="G85" s="80"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="55"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="38"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="80"/>
+      <c r="G86" s="80"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="55"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="38"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="80"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="55"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="38"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="80"/>
+      <c r="G88" s="80"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="55"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="38"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="80"/>
+      <c r="G89" s="80"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="55"/>
+    </row>
+    <row r="90" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="56"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="81"/>
+      <c r="G90" s="81"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="E12:E21"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F12:H21"/>
-    <mergeCell ref="E22:E31"/>
-    <mergeCell ref="F22:H31"/>
+  <mergeCells count="89">
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="G12:I21"/>
+    <mergeCell ref="F22:F31"/>
+    <mergeCell ref="G22:I31"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G2:I11"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="F12:F21"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:F56"/>
+    <mergeCell ref="G47:I56"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="F57:F66"/>
+    <mergeCell ref="G57:I66"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:F76"/>
+    <mergeCell ref="G67:I76"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B19:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.11811023622047244" right="0.11811023622047244" top="0.11811023622047244" bottom="0.11811023622047244" header="0" footer="0"/>
+  <printOptions verticalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="3.937007874015748E-2" top="0.11811023622047245" bottom="0.11811023622047245" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A8:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="9:10" ht="13.8" customHeight="1" x14ac:dyDescent="1.45">
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+    </row>
+    <row r="9" spans="9:10" ht="13.8" customHeight="1" x14ac:dyDescent="1.45">
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+    </row>
+    <row r="10" spans="9:10" ht="13.8" customHeight="1" x14ac:dyDescent="1.45">
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+    </row>
+    <row r="11" spans="9:10" ht="13.8" customHeight="1" x14ac:dyDescent="1.45">
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+    </row>
+    <row r="12" spans="9:10" ht="13.8" customHeight="1" x14ac:dyDescent="1.45">
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+    </row>
+    <row r="13" spans="9:10" ht="13.8" customHeight="1" x14ac:dyDescent="1.45">
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+    </row>
+    <row r="14" spans="9:10" ht="13.8" customHeight="1" x14ac:dyDescent="1.45">
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="113" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="113"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+    </row>
+    <row r="20" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="113"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="113"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+    </row>
+    <row r="24" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="113"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="113"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A18:I25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
@@ -3300,20 +4441,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="48.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -3623,7 +4764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
@@ -3643,37 +4784,37 @@
     <col min="9" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="51" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:8" s="33" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="106" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3687,11 +4828,11 @@
       <c r="C3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -4073,7 +5214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R88"/>
   <sheetViews>
@@ -4102,192 +5243,192 @@
     <col min="19" max="16384" width="12.33203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="53" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:18" s="34" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="62" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="62" t="s">
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="62" t="s">
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="64"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="109"/>
     </row>
     <row r="2" spans="1:18" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="35">
         <v>21110301</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="65" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="54">
+      <c r="G2" s="35">
         <v>21111001</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="65" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="54">
+      <c r="K2" s="35">
         <v>21111012</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="65" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="54">
+      <c r="P2" s="35">
         <v>21111013</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="66"/>
+      <c r="R2" s="39"/>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="35" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="65" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="65" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="54"/>
+      <c r="K3" s="35"/>
       <c r="L3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="65" t="s">
+      <c r="M3" s="39"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="54"/>
+      <c r="P3" s="35"/>
       <c r="Q3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="R3" s="66"/>
+      <c r="R3" s="39"/>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="36">
         <v>44472</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="39">
         <v>6000</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="65" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="65" t="s">
+      <c r="I4" s="39"/>
+      <c r="J4" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="56"/>
+      <c r="K4" s="36"/>
       <c r="L4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="65" t="s">
+      <c r="M4" s="39"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="56"/>
+      <c r="P4" s="36"/>
       <c r="Q4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="R4" s="66"/>
+      <c r="R4" s="39"/>
     </row>
     <row r="5" spans="1:18" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="65" t="s">
+      <c r="C5" s="110"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="65" t="s">
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="65" t="s">
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="67"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="111"/>
     </row>
     <row r="6" spans="1:18" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="38" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -4296,11 +5437,11 @@
       <c r="C6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="65" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="38" t="s">
         <v>68</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -4309,10 +5450,10 @@
       <c r="H6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="38" t="s">
         <v>68</v>
       </c>
       <c r="K6" s="9" t="s">
@@ -4321,11 +5462,11 @@
       <c r="L6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="68" t="s">
+      <c r="M6" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="78"/>
-      <c r="O6" s="65" t="s">
+      <c r="N6" s="50"/>
+      <c r="O6" s="38" t="s">
         <v>68</v>
       </c>
       <c r="P6" s="9" t="s">
@@ -4334,185 +5475,185 @@
       <c r="Q6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="R6" s="68" t="s">
+      <c r="R6" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74">
+      <c r="A7" s="46">
         <v>44272</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="36">
         <v>44558</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="66"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="39"/>
     </row>
     <row r="8" spans="1:18" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74">
+      <c r="A8" s="46">
         <v>44308</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="36">
         <v>44591</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="66"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="39"/>
     </row>
     <row r="9" spans="1:18" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="66"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="39"/>
     </row>
     <row r="10" spans="1:18" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="66"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="39"/>
     </row>
     <row r="11" spans="1:18" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="69"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="41"/>
     </row>
     <row r="12" spans="1:18" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="69"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="41"/>
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="69"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="41"/>
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="73"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="45"/>
     </row>
     <row r="15" spans="1:18" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K15" s="1"/>
@@ -4520,179 +5661,179 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="62" t="s">
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="62" t="s">
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="62" t="s">
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="64"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="109"/>
     </row>
     <row r="17" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="35">
         <v>21111002</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="65" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="35">
         <v>21111003</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="66"/>
-      <c r="J17" s="65" t="s">
+      <c r="I17" s="39"/>
+      <c r="J17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="54">
+      <c r="K17" s="35">
         <v>21111014</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="66"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="65" t="s">
+      <c r="M17" s="39"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P17" s="54">
+      <c r="P17" s="35">
         <v>21111015</v>
       </c>
       <c r="Q17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R17" s="66"/>
+      <c r="R17" s="39"/>
     </row>
     <row r="18" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="54"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="65" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="54"/>
+      <c r="G18" s="35"/>
       <c r="H18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="66"/>
-      <c r="J18" s="65" t="s">
+      <c r="I18" s="39"/>
+      <c r="J18" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="54"/>
+      <c r="K18" s="35"/>
       <c r="L18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="66"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="65" t="s">
+      <c r="M18" s="39"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="54"/>
+      <c r="P18" s="35"/>
       <c r="Q18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="R18" s="66"/>
+      <c r="R18" s="39"/>
     </row>
     <row r="19" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="56"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="65" t="s">
+      <c r="D19" s="39"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="56"/>
+      <c r="G19" s="36"/>
       <c r="H19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="66"/>
-      <c r="J19" s="65" t="s">
+      <c r="I19" s="39"/>
+      <c r="J19" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="56"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="M19" s="66"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="65" t="s">
+      <c r="M19" s="39"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="P19" s="56"/>
+      <c r="P19" s="36"/>
       <c r="Q19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="R19" s="66"/>
+      <c r="R19" s="39"/>
     </row>
     <row r="20" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="65" t="s">
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="65" t="s">
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="65" t="s">
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="67"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="111"/>
     </row>
     <row r="21" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="38" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -4701,11 +5842,11 @@
       <c r="C21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="78"/>
-      <c r="F21" s="65" t="s">
+      <c r="E21" s="50"/>
+      <c r="F21" s="38" t="s">
         <v>68</v>
       </c>
       <c r="G21" s="9" t="s">
@@ -4714,10 +5855,10 @@
       <c r="H21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="68" t="s">
+      <c r="I21" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="65" t="s">
+      <c r="J21" s="38" t="s">
         <v>68</v>
       </c>
       <c r="K21" s="9" t="s">
@@ -4726,11 +5867,11 @@
       <c r="L21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="M21" s="68" t="s">
+      <c r="M21" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="N21" s="78"/>
-      <c r="O21" s="65" t="s">
+      <c r="N21" s="50"/>
+      <c r="O21" s="38" t="s">
         <v>68</v>
       </c>
       <c r="P21" s="9" t="s">
@@ -4739,169 +5880,169 @@
       <c r="Q21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="R21" s="68" t="s">
+      <c r="R21" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="66"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="39"/>
     </row>
     <row r="23" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="66"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="39"/>
     </row>
     <row r="24" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="66"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="66"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="39"/>
     </row>
     <row r="26" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="69"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="41"/>
     </row>
     <row r="27" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="69"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="69"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="1:18" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="71"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="73"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="45"/>
     </row>
     <row r="30" spans="1:18" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K30" s="1"/>
@@ -4909,179 +6050,179 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="62" t="s">
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="62" t="s">
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="62" t="s">
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="64"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="109"/>
     </row>
     <row r="32" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="54">
+      <c r="B32" s="35">
         <v>21111004</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="66"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="65" t="s">
+      <c r="D32" s="39"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="54">
+      <c r="G32" s="35">
         <v>21111005</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="66"/>
-      <c r="J32" s="65" t="s">
+      <c r="I32" s="39"/>
+      <c r="J32" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="54">
+      <c r="K32" s="35">
         <v>21111016</v>
       </c>
       <c r="L32" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="66"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="65" t="s">
+      <c r="M32" s="39"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P32" s="54">
+      <c r="P32" s="35">
         <v>21111017</v>
       </c>
       <c r="Q32" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="66"/>
+      <c r="R32" s="39"/>
     </row>
     <row r="33" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="54"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="66"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="65" t="s">
+      <c r="D33" s="39"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="54"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="66"/>
-      <c r="J33" s="65" t="s">
+      <c r="I33" s="39"/>
+      <c r="J33" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="54"/>
+      <c r="K33" s="35"/>
       <c r="L33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="M33" s="66"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="65" t="s">
+      <c r="M33" s="39"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="P33" s="54"/>
+      <c r="P33" s="35"/>
       <c r="Q33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="R33" s="66"/>
+      <c r="R33" s="39"/>
     </row>
     <row r="34" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="56"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="65" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="56"/>
+      <c r="G34" s="36"/>
       <c r="H34" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="66"/>
-      <c r="J34" s="65" t="s">
+      <c r="I34" s="39"/>
+      <c r="J34" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K34" s="56"/>
+      <c r="K34" s="36"/>
       <c r="L34" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="M34" s="66"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="65" t="s">
+      <c r="M34" s="39"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="P34" s="56"/>
+      <c r="P34" s="36"/>
       <c r="Q34" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="R34" s="66"/>
+      <c r="R34" s="39"/>
     </row>
     <row r="35" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="65" t="s">
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="65" t="s">
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="65" t="s">
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="67"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="110"/>
+      <c r="R35" s="111"/>
     </row>
     <row r="36" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="38" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -5090,11 +6231,11 @@
       <c r="C36" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="68" t="s">
+      <c r="D36" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="78"/>
-      <c r="F36" s="65" t="s">
+      <c r="E36" s="50"/>
+      <c r="F36" s="38" t="s">
         <v>68</v>
       </c>
       <c r="G36" s="9" t="s">
@@ -5103,10 +6244,10 @@
       <c r="H36" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="68" t="s">
+      <c r="I36" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="J36" s="65" t="s">
+      <c r="J36" s="38" t="s">
         <v>68</v>
       </c>
       <c r="K36" s="9" t="s">
@@ -5115,11 +6256,11 @@
       <c r="L36" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="M36" s="68" t="s">
+      <c r="M36" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="N36" s="78"/>
-      <c r="O36" s="65" t="s">
+      <c r="N36" s="50"/>
+      <c r="O36" s="38" t="s">
         <v>68</v>
       </c>
       <c r="P36" s="9" t="s">
@@ -5128,344 +6269,344 @@
       <c r="Q36" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="R36" s="68" t="s">
+      <c r="R36" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="74"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="66"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="39"/>
     </row>
     <row r="38" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="66"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="39"/>
     </row>
     <row r="39" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="74"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="66"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="39"/>
     </row>
     <row r="40" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="66"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="39"/>
     </row>
     <row r="41" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="70"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="69"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="60"/>
-      <c r="R42" s="69"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="70"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="60"/>
-      <c r="R43" s="69"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="1:18" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="71"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="73"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="45"/>
     </row>
     <row r="45" spans="1:18" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="62" t="s">
+      <c r="B45" s="108"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="62" t="s">
+      <c r="G45" s="108"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="62" t="s">
+      <c r="K45" s="108"/>
+      <c r="L45" s="108"/>
+      <c r="M45" s="109"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="P45" s="63"/>
-      <c r="Q45" s="63"/>
-      <c r="R45" s="64"/>
+      <c r="P45" s="108"/>
+      <c r="Q45" s="108"/>
+      <c r="R45" s="109"/>
     </row>
     <row r="46" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="54">
+      <c r="B46" s="35">
         <v>21111006</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="66"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="65" t="s">
+      <c r="D46" s="39"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G46" s="54">
+      <c r="G46" s="35">
         <v>21111007</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I46" s="66"/>
-      <c r="J46" s="65" t="s">
+      <c r="I46" s="39"/>
+      <c r="J46" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="54">
+      <c r="K46" s="35">
         <v>21111018</v>
       </c>
       <c r="L46" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M46" s="66"/>
-      <c r="N46" s="76"/>
-      <c r="O46" s="65" t="s">
+      <c r="M46" s="39"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P46" s="54">
+      <c r="P46" s="35">
         <v>21111019</v>
       </c>
       <c r="Q46" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R46" s="66"/>
+      <c r="R46" s="39"/>
     </row>
     <row r="47" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="54"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="66"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="65" t="s">
+      <c r="D47" s="39"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="54"/>
+      <c r="G47" s="35"/>
       <c r="H47" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I47" s="66"/>
-      <c r="J47" s="65" t="s">
+      <c r="I47" s="39"/>
+      <c r="J47" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="K47" s="54"/>
+      <c r="K47" s="35"/>
       <c r="L47" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="M47" s="66"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="65" t="s">
+      <c r="M47" s="39"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="P47" s="54"/>
+      <c r="P47" s="35"/>
       <c r="Q47" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="R47" s="66"/>
+      <c r="R47" s="39"/>
     </row>
     <row r="48" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="56"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="66"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="65" t="s">
+      <c r="D48" s="39"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G48" s="56"/>
+      <c r="G48" s="36"/>
       <c r="H48" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I48" s="66"/>
-      <c r="J48" s="65" t="s">
+      <c r="I48" s="39"/>
+      <c r="J48" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K48" s="56"/>
+      <c r="K48" s="36"/>
       <c r="L48" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="M48" s="66"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="65" t="s">
+      <c r="M48" s="39"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="P48" s="56"/>
+      <c r="P48" s="36"/>
       <c r="Q48" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="R48" s="66"/>
+      <c r="R48" s="39"/>
     </row>
     <row r="49" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="65" t="s">
+      <c r="A49" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="65" t="s">
+      <c r="B49" s="110"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="65" t="s">
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="77"/>
-      <c r="O49" s="65" t="s">
+      <c r="K49" s="110"/>
+      <c r="L49" s="110"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="67"/>
+      <c r="P49" s="110"/>
+      <c r="Q49" s="110"/>
+      <c r="R49" s="111"/>
     </row>
     <row r="50" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="38" t="s">
         <v>68</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -5474,11 +6615,11 @@
       <c r="C50" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="68" t="s">
+      <c r="D50" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="78"/>
-      <c r="F50" s="65" t="s">
+      <c r="E50" s="50"/>
+      <c r="F50" s="38" t="s">
         <v>68</v>
       </c>
       <c r="G50" s="9" t="s">
@@ -5487,10 +6628,10 @@
       <c r="H50" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I50" s="68" t="s">
+      <c r="I50" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="J50" s="65" t="s">
+      <c r="J50" s="38" t="s">
         <v>68</v>
       </c>
       <c r="K50" s="9" t="s">
@@ -5499,11 +6640,11 @@
       <c r="L50" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="M50" s="68" t="s">
+      <c r="M50" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="N50" s="78"/>
-      <c r="O50" s="65" t="s">
+      <c r="N50" s="50"/>
+      <c r="O50" s="38" t="s">
         <v>68</v>
       </c>
       <c r="P50" s="9" t="s">
@@ -5512,169 +6653,169 @@
       <c r="Q50" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="R50" s="68" t="s">
+      <c r="R50" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="74"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="66"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="76"/>
-      <c r="O51" s="74"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="66"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="39"/>
     </row>
     <row r="52" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="74"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="66"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="74"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="66"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="39"/>
     </row>
     <row r="53" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="74"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="66"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="74"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="66"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="39"/>
     </row>
     <row r="54" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="74"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="76"/>
-      <c r="O54" s="74"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="66"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="39"/>
     </row>
     <row r="55" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="70"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="69"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="77"/>
-      <c r="O55" s="70"/>
-      <c r="P55" s="60"/>
-      <c r="Q55" s="60"/>
-      <c r="R55" s="69"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="41"/>
     </row>
     <row r="56" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="70"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="69"/>
-      <c r="N56" s="77"/>
-      <c r="O56" s="70"/>
-      <c r="P56" s="60"/>
-      <c r="Q56" s="60"/>
-      <c r="R56" s="69"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="41"/>
     </row>
     <row r="57" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="70"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="69"/>
-      <c r="N57" s="77"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="60"/>
-      <c r="Q57" s="60"/>
-      <c r="R57" s="69"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="41"/>
     </row>
     <row r="58" spans="1:18" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="71"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="72"/>
-      <c r="L58" s="72"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="71"/>
-      <c r="P58" s="72"/>
-      <c r="Q58" s="72"/>
-      <c r="R58" s="73"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="51"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="45"/>
     </row>
     <row r="59" spans="1:18" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K59" s="1"/>
@@ -5682,179 +6823,179 @@
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="1:18" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="62" t="s">
+      <c r="A60" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="63"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="62" t="s">
+      <c r="B60" s="108"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="62" t="s">
+      <c r="G60" s="108"/>
+      <c r="H60" s="108"/>
+      <c r="I60" s="109"/>
+      <c r="J60" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="K60" s="63"/>
-      <c r="L60" s="63"/>
-      <c r="M60" s="64"/>
-      <c r="N60" s="75"/>
-      <c r="O60" s="62" t="s">
+      <c r="K60" s="108"/>
+      <c r="L60" s="108"/>
+      <c r="M60" s="109"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="P60" s="63"/>
-      <c r="Q60" s="63"/>
-      <c r="R60" s="64"/>
+      <c r="P60" s="108"/>
+      <c r="Q60" s="108"/>
+      <c r="R60" s="109"/>
     </row>
     <row r="61" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="65" t="s">
+      <c r="A61" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="54">
+      <c r="B61" s="35">
         <v>21111008</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="66"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="65" t="s">
+      <c r="D61" s="39"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G61" s="54">
+      <c r="G61" s="35">
         <v>21111009</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I61" s="66"/>
-      <c r="J61" s="65" t="s">
+      <c r="I61" s="39"/>
+      <c r="J61" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K61" s="54">
+      <c r="K61" s="35">
         <v>21111020</v>
       </c>
       <c r="L61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M61" s="66"/>
-      <c r="N61" s="76"/>
-      <c r="O61" s="65" t="s">
+      <c r="M61" s="39"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P61" s="54">
+      <c r="P61" s="35">
         <v>21111021</v>
       </c>
       <c r="Q61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R61" s="66"/>
+      <c r="R61" s="39"/>
     </row>
     <row r="62" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="54"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D62" s="66"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="65" t="s">
+      <c r="D62" s="39"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G62" s="54"/>
+      <c r="G62" s="35"/>
       <c r="H62" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I62" s="66"/>
-      <c r="J62" s="65" t="s">
+      <c r="I62" s="39"/>
+      <c r="J62" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="K62" s="54"/>
+      <c r="K62" s="35"/>
       <c r="L62" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="M62" s="66"/>
-      <c r="N62" s="76"/>
-      <c r="O62" s="65" t="s">
+      <c r="M62" s="39"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="P62" s="54"/>
+      <c r="P62" s="35"/>
       <c r="Q62" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="R62" s="66"/>
+      <c r="R62" s="39"/>
     </row>
     <row r="63" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="65" t="s">
+      <c r="A63" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="56"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D63" s="66"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="65" t="s">
+      <c r="D63" s="39"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G63" s="56"/>
+      <c r="G63" s="36"/>
       <c r="H63" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I63" s="66"/>
-      <c r="J63" s="65" t="s">
+      <c r="I63" s="39"/>
+      <c r="J63" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K63" s="56"/>
+      <c r="K63" s="36"/>
       <c r="L63" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="M63" s="66"/>
-      <c r="N63" s="76"/>
-      <c r="O63" s="65" t="s">
+      <c r="M63" s="39"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="P63" s="56"/>
+      <c r="P63" s="36"/>
       <c r="Q63" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="R63" s="66"/>
+      <c r="R63" s="39"/>
     </row>
     <row r="64" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="65" t="s">
+      <c r="A64" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="61"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="65" t="s">
+      <c r="B64" s="110"/>
+      <c r="C64" s="110"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="65" t="s">
+      <c r="G64" s="110"/>
+      <c r="H64" s="110"/>
+      <c r="I64" s="111"/>
+      <c r="J64" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K64" s="61"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="77"/>
-      <c r="O64" s="65" t="s">
+      <c r="K64" s="110"/>
+      <c r="L64" s="110"/>
+      <c r="M64" s="111"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P64" s="61"/>
-      <c r="Q64" s="61"/>
-      <c r="R64" s="67"/>
+      <c r="P64" s="110"/>
+      <c r="Q64" s="110"/>
+      <c r="R64" s="111"/>
     </row>
     <row r="65" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="65" t="s">
+      <c r="A65" s="38" t="s">
         <v>68</v>
       </c>
       <c r="B65" s="9" t="s">
@@ -5863,11 +7004,11 @@
       <c r="C65" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D65" s="68" t="s">
+      <c r="D65" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E65" s="78"/>
-      <c r="F65" s="65" t="s">
+      <c r="E65" s="50"/>
+      <c r="F65" s="38" t="s">
         <v>68</v>
       </c>
       <c r="G65" s="9" t="s">
@@ -5876,10 +7017,10 @@
       <c r="H65" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I65" s="68" t="s">
+      <c r="I65" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="J65" s="65" t="s">
+      <c r="J65" s="38" t="s">
         <v>68</v>
       </c>
       <c r="K65" s="9" t="s">
@@ -5888,11 +7029,11 @@
       <c r="L65" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="M65" s="68" t="s">
+      <c r="M65" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="N65" s="78"/>
-      <c r="O65" s="65" t="s">
+      <c r="N65" s="50"/>
+      <c r="O65" s="38" t="s">
         <v>68</v>
       </c>
       <c r="P65" s="9" t="s">
@@ -5901,169 +7042,169 @@
       <c r="Q65" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="R65" s="68" t="s">
+      <c r="R65" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="74"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="74"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="66"/>
-      <c r="N66" s="76"/>
-      <c r="O66" s="74"/>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="66"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="39"/>
     </row>
     <row r="67" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="74"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="76"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="74"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="66"/>
-      <c r="N67" s="76"/>
-      <c r="O67" s="74"/>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="56"/>
-      <c r="R67" s="66"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="39"/>
     </row>
     <row r="68" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="74"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="66"/>
-      <c r="N68" s="76"/>
-      <c r="O68" s="74"/>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="66"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="39"/>
     </row>
     <row r="69" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="74"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="74"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="66"/>
-      <c r="N69" s="77"/>
-      <c r="O69" s="74"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="56"/>
-      <c r="R69" s="66"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="39"/>
     </row>
     <row r="70" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="70"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="69"/>
-      <c r="J70" s="70"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="60"/>
-      <c r="M70" s="69"/>
-      <c r="N70" s="77"/>
-      <c r="O70" s="70"/>
-      <c r="P70" s="60"/>
-      <c r="Q70" s="60"/>
-      <c r="R70" s="69"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="41"/>
     </row>
     <row r="71" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="70"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="69"/>
-      <c r="J71" s="70"/>
-      <c r="K71" s="60"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="69"/>
-      <c r="N71" s="77"/>
-      <c r="O71" s="70"/>
-      <c r="P71" s="60"/>
-      <c r="Q71" s="60"/>
-      <c r="R71" s="69"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
+      <c r="R71" s="41"/>
     </row>
     <row r="72" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="70"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="69"/>
-      <c r="J72" s="70"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="69"/>
-      <c r="N72" s="77"/>
-      <c r="O72" s="70"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="60"/>
-      <c r="R72" s="69"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="41"/>
     </row>
     <row r="73" spans="1:18" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="71"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="73"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="72"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="73"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="71"/>
-      <c r="P73" s="72"/>
-      <c r="Q73" s="72"/>
-      <c r="R73" s="73"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="45"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="44"/>
+      <c r="R73" s="45"/>
     </row>
     <row r="74" spans="1:18" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K74" s="1"/>
@@ -6071,179 +7212,179 @@
       <c r="N74" s="1"/>
     </row>
     <row r="75" spans="1:18" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="62" t="s">
+      <c r="A75" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B75" s="63"/>
-      <c r="C75" s="63"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="62" t="s">
+      <c r="B75" s="108"/>
+      <c r="C75" s="108"/>
+      <c r="D75" s="109"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="64"/>
-      <c r="J75" s="62" t="s">
+      <c r="G75" s="108"/>
+      <c r="H75" s="108"/>
+      <c r="I75" s="109"/>
+      <c r="J75" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="K75" s="63"/>
-      <c r="L75" s="63"/>
-      <c r="M75" s="64"/>
-      <c r="N75" s="75"/>
-      <c r="O75" s="62" t="s">
+      <c r="K75" s="108"/>
+      <c r="L75" s="108"/>
+      <c r="M75" s="109"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="P75" s="63"/>
-      <c r="Q75" s="63"/>
-      <c r="R75" s="64"/>
+      <c r="P75" s="108"/>
+      <c r="Q75" s="108"/>
+      <c r="R75" s="109"/>
     </row>
     <row r="76" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="65" t="s">
+      <c r="A76" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="54">
+      <c r="B76" s="35">
         <v>21111010</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="66"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="65" t="s">
+      <c r="D76" s="39"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G76" s="54">
+      <c r="G76" s="35">
         <v>21111011</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I76" s="66"/>
-      <c r="J76" s="65" t="s">
+      <c r="I76" s="39"/>
+      <c r="J76" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K76" s="54">
+      <c r="K76" s="35">
         <v>21111022</v>
       </c>
       <c r="L76" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="66"/>
-      <c r="N76" s="76"/>
-      <c r="O76" s="65" t="s">
+      <c r="M76" s="39"/>
+      <c r="N76" s="48"/>
+      <c r="O76" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P76" s="54">
+      <c r="P76" s="35">
         <v>21111023</v>
       </c>
       <c r="Q76" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R76" s="66"/>
+      <c r="R76" s="39"/>
     </row>
     <row r="77" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="65" t="s">
+      <c r="A77" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B77" s="54"/>
+      <c r="B77" s="35"/>
       <c r="C77" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D77" s="66"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="65" t="s">
+      <c r="D77" s="39"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G77" s="54"/>
+      <c r="G77" s="35"/>
       <c r="H77" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I77" s="66"/>
-      <c r="J77" s="65" t="s">
+      <c r="I77" s="39"/>
+      <c r="J77" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="K77" s="54"/>
+      <c r="K77" s="35"/>
       <c r="L77" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="M77" s="66"/>
-      <c r="N77" s="76"/>
-      <c r="O77" s="65" t="s">
+      <c r="M77" s="39"/>
+      <c r="N77" s="48"/>
+      <c r="O77" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="P77" s="54"/>
+      <c r="P77" s="35"/>
       <c r="Q77" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="R77" s="66"/>
+      <c r="R77" s="39"/>
     </row>
     <row r="78" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="65" t="s">
+      <c r="A78" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="56"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="66"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="65" t="s">
+      <c r="D78" s="39"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G78" s="56"/>
+      <c r="G78" s="36"/>
       <c r="H78" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I78" s="66"/>
-      <c r="J78" s="65" t="s">
+      <c r="I78" s="39"/>
+      <c r="J78" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K78" s="56"/>
+      <c r="K78" s="36"/>
       <c r="L78" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="M78" s="66"/>
-      <c r="N78" s="76"/>
-      <c r="O78" s="65" t="s">
+      <c r="M78" s="39"/>
+      <c r="N78" s="48"/>
+      <c r="O78" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="P78" s="56"/>
+      <c r="P78" s="36"/>
       <c r="Q78" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="R78" s="66"/>
+      <c r="R78" s="39"/>
     </row>
     <row r="79" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="65" t="s">
+      <c r="A79" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B79" s="61"/>
-      <c r="C79" s="61"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="77"/>
-      <c r="F79" s="65" t="s">
+      <c r="B79" s="110"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="111"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="67"/>
-      <c r="J79" s="65" t="s">
+      <c r="G79" s="110"/>
+      <c r="H79" s="110"/>
+      <c r="I79" s="111"/>
+      <c r="J79" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K79" s="61"/>
-      <c r="L79" s="61"/>
-      <c r="M79" s="67"/>
-      <c r="N79" s="77"/>
-      <c r="O79" s="65" t="s">
+      <c r="K79" s="110"/>
+      <c r="L79" s="110"/>
+      <c r="M79" s="111"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P79" s="61"/>
-      <c r="Q79" s="61"/>
-      <c r="R79" s="67"/>
+      <c r="P79" s="110"/>
+      <c r="Q79" s="110"/>
+      <c r="R79" s="111"/>
     </row>
     <row r="80" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="65" t="s">
+      <c r="A80" s="38" t="s">
         <v>68</v>
       </c>
       <c r="B80" s="9" t="s">
@@ -6252,11 +7393,11 @@
       <c r="C80" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D80" s="68" t="s">
+      <c r="D80" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E80" s="78"/>
-      <c r="F80" s="65" t="s">
+      <c r="E80" s="50"/>
+      <c r="F80" s="38" t="s">
         <v>68</v>
       </c>
       <c r="G80" s="9" t="s">
@@ -6265,10 +7406,10 @@
       <c r="H80" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I80" s="68" t="s">
+      <c r="I80" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="J80" s="65" t="s">
+      <c r="J80" s="38" t="s">
         <v>68</v>
       </c>
       <c r="K80" s="9" t="s">
@@ -6277,11 +7418,11 @@
       <c r="L80" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="M80" s="68" t="s">
+      <c r="M80" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="N80" s="78"/>
-      <c r="O80" s="65" t="s">
+      <c r="N80" s="50"/>
+      <c r="O80" s="38" t="s">
         <v>68</v>
       </c>
       <c r="P80" s="9" t="s">
@@ -6290,169 +7431,169 @@
       <c r="Q80" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="R80" s="68" t="s">
+      <c r="R80" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="74"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="74"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="74"/>
-      <c r="K81" s="54"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="66"/>
-      <c r="N81" s="76"/>
-      <c r="O81" s="74"/>
-      <c r="P81" s="54"/>
-      <c r="Q81" s="56"/>
-      <c r="R81" s="66"/>
+      <c r="A81" s="46"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="48"/>
+      <c r="O81" s="46"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="36"/>
+      <c r="R81" s="39"/>
     </row>
     <row r="82" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="74"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="74"/>
-      <c r="K82" s="54"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="66"/>
-      <c r="N82" s="76"/>
-      <c r="O82" s="74"/>
-      <c r="P82" s="54"/>
-      <c r="Q82" s="56"/>
-      <c r="R82" s="66"/>
+      <c r="A82" s="46"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="48"/>
+      <c r="O82" s="46"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="39"/>
     </row>
     <row r="83" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="74"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="77"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="74"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="56"/>
-      <c r="M83" s="66"/>
-      <c r="N83" s="77"/>
-      <c r="O83" s="74"/>
-      <c r="P83" s="54"/>
-      <c r="Q83" s="56"/>
-      <c r="R83" s="66"/>
+      <c r="A83" s="46"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="46"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="39"/>
+      <c r="N83" s="49"/>
+      <c r="O83" s="46"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="39"/>
     </row>
     <row r="84" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="74"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="74"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="74"/>
-      <c r="K84" s="54"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="66"/>
-      <c r="N84" s="77"/>
-      <c r="O84" s="74"/>
-      <c r="P84" s="54"/>
-      <c r="Q84" s="56"/>
-      <c r="R84" s="66"/>
+      <c r="A84" s="46"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="46"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="49"/>
+      <c r="O84" s="46"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="39"/>
     </row>
     <row r="85" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="70"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="77"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="69"/>
-      <c r="J85" s="70"/>
-      <c r="K85" s="60"/>
-      <c r="L85" s="60"/>
-      <c r="M85" s="69"/>
-      <c r="N85" s="77"/>
-      <c r="O85" s="70"/>
-      <c r="P85" s="60"/>
-      <c r="Q85" s="60"/>
-      <c r="R85" s="69"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="41"/>
+      <c r="N85" s="49"/>
+      <c r="O85" s="42"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="37"/>
+      <c r="R85" s="41"/>
     </row>
     <row r="86" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="70"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="70"/>
-      <c r="G86" s="60"/>
-      <c r="H86" s="60"/>
-      <c r="I86" s="69"/>
-      <c r="J86" s="70"/>
-      <c r="K86" s="60"/>
-      <c r="L86" s="60"/>
-      <c r="M86" s="69"/>
-      <c r="N86" s="77"/>
-      <c r="O86" s="70"/>
-      <c r="P86" s="60"/>
-      <c r="Q86" s="60"/>
-      <c r="R86" s="69"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="42"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="41"/>
+      <c r="N86" s="49"/>
+      <c r="O86" s="42"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="41"/>
     </row>
     <row r="87" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="70"/>
-      <c r="B87" s="60"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="69"/>
-      <c r="J87" s="70"/>
-      <c r="K87" s="60"/>
-      <c r="L87" s="60"/>
-      <c r="M87" s="69"/>
-      <c r="N87" s="80"/>
-      <c r="O87" s="70"/>
-      <c r="P87" s="60"/>
-      <c r="Q87" s="60"/>
-      <c r="R87" s="69"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="52"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="37"/>
+      <c r="Q87" s="37"/>
+      <c r="R87" s="41"/>
     </row>
     <row r="88" spans="1:18" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="71"/>
-      <c r="B88" s="72"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="73"/>
-      <c r="E88" s="79"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="72"/>
-      <c r="H88" s="72"/>
-      <c r="I88" s="73"/>
-      <c r="J88" s="71"/>
-      <c r="K88" s="72"/>
-      <c r="L88" s="72"/>
-      <c r="M88" s="73"/>
-      <c r="N88" s="79"/>
-      <c r="O88" s="71"/>
-      <c r="P88" s="72"/>
-      <c r="Q88" s="72"/>
-      <c r="R88" s="73"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="45"/>
+      <c r="N88" s="51"/>
+      <c r="O88" s="43"/>
+      <c r="P88" s="44"/>
+      <c r="Q88" s="44"/>
+      <c r="R88" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -6484,26 +7625,26 @@
     <mergeCell ref="F45:I45"/>
     <mergeCell ref="J45:M45"/>
     <mergeCell ref="O45:R45"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="G35:I35"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="P5:R5"/>
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="O16:R16"/>
+    <mergeCell ref="J1:M1"/>
     <mergeCell ref="K20:M20"/>
     <mergeCell ref="P20:R20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="G35:I35"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.11811023622047244" right="0.11811023622047244" top="0.11811023622047244" bottom="0.11811023622047244" header="0" footer="0"/>

--- a/阿牧颗粒加工作坊/养殖服务/繁殖买卖配种记录表.xlsx
+++ b/阿牧颗粒加工作坊/养殖服务/繁殖买卖配种记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="肉牛育肥记录表" sheetId="3" r:id="rId1"/>
@@ -1266,6 +1266,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1302,16 +1303,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1323,13 +1342,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1341,52 +1354,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1395,8 +1390,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1875,62 +1875,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="74"/>
     </row>
     <row r="2" spans="1:20" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="77" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69" t="s">
+      <c r="L2" s="70"/>
+      <c r="M2" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="69"/>
-      <c r="O2" s="74" t="s">
+      <c r="N2" s="70"/>
+      <c r="O2" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="69" t="s">
+      <c r="P2" s="76"/>
+      <c r="Q2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="71"/>
     </row>
     <row r="3" spans="1:20" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
@@ -1960,7 +1960,7 @@
       <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="78"/>
+      <c r="J3" s="79"/>
       <c r="K3" s="6" t="s">
         <v>1</v>
       </c>
@@ -2623,20 +2623,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="48.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2924,7 +2924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
       <selection activeCell="A46" sqref="A46:I90"/>
     </sheetView>
   </sheetViews>
@@ -2939,49 +2939,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="104">
+      <c r="B2" s="84">
         <v>21110301</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="96" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="94"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="94"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
@@ -2990,59 +2990,59 @@
       <c r="B4" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="94"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="94"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="82"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="94"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="82"/>
       <c r="L6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="94"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -3051,30 +3051,30 @@
       <c r="B8" s="53">
         <v>6000</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="94"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="94"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="82"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
@@ -3083,15 +3083,15 @@
       <c r="B10" s="53">
         <v>245</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="94"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
@@ -3100,62 +3100,62 @@
       <c r="B11" s="53">
         <v>1</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="94"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="82"/>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="96" t="s">
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="94"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="94"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="82"/>
       <c r="L13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="94"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="82"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
@@ -3164,30 +3164,30 @@
       <c r="B15" s="53">
         <v>6000</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="94"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="94"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
@@ -3196,15 +3196,15 @@
       <c r="B17" s="53">
         <v>345</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="94"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
@@ -3213,43 +3213,43 @@
       <c r="B18" s="53">
         <v>3</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="94"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="94"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="82"/>
     </row>
     <row r="20" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="94"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="82"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
@@ -3261,14 +3261,14 @@
       <c r="C21" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="94"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="82"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
@@ -3280,16 +3280,16 @@
       <c r="C22" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="82" t="s">
+      <c r="D22" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="84"/>
-      <c r="F22" s="96" t="s">
+      <c r="E22" s="90"/>
+      <c r="F22" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="94"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="82"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
@@ -3301,14 +3301,14 @@
       <c r="C23" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="82" t="s">
+      <c r="D23" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="84"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="94"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="82"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
@@ -3320,27 +3320,27 @@
       <c r="C24" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="94"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="82"/>
     </row>
     <row r="25" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="94"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
@@ -3358,10 +3358,10 @@
       <c r="E26" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="F26" s="96"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="94"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="82"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="46">
@@ -3379,10 +3379,10 @@
       <c r="E27" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="96"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="94"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="82"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
@@ -3390,10 +3390,10 @@
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="94"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="82"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
@@ -3401,10 +3401,10 @@
       <c r="C29" s="54"/>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="94"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="82"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
@@ -3412,10 +3412,10 @@
       <c r="C30" s="54"/>
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="94"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="82"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
@@ -3423,10 +3423,10 @@
       <c r="C31" s="54"/>
       <c r="D31" s="54"/>
       <c r="E31" s="54"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="94"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="82"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
@@ -3434,12 +3434,12 @@
       <c r="C32" s="54"/>
       <c r="D32" s="54"/>
       <c r="E32" s="54"/>
-      <c r="F32" s="80" t="s">
+      <c r="F32" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="94"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="82"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
@@ -3447,10 +3447,10 @@
       <c r="C33" s="54"/>
       <c r="D33" s="54"/>
       <c r="E33" s="54"/>
-      <c r="F33" s="80" t="s">
+      <c r="F33" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="80"/>
+      <c r="G33" s="81"/>
       <c r="H33" s="14" t="s">
         <v>89</v>
       </c>
@@ -3464,10 +3464,10 @@
       <c r="C34" s="54"/>
       <c r="D34" s="54"/>
       <c r="E34" s="54"/>
-      <c r="F34" s="80">
+      <c r="F34" s="81">
         <v>2021</v>
       </c>
-      <c r="G34" s="80"/>
+      <c r="G34" s="81"/>
       <c r="H34" s="14" t="s">
         <v>113</v>
       </c>
@@ -3479,8 +3479,8 @@
       <c r="C35" s="54"/>
       <c r="D35" s="54"/>
       <c r="E35" s="54"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
       <c r="H35" s="14"/>
       <c r="I35" s="55"/>
     </row>
@@ -3490,8 +3490,8 @@
       <c r="C36" s="54"/>
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
       <c r="H36" s="14"/>
       <c r="I36" s="55"/>
     </row>
@@ -3501,8 +3501,8 @@
       <c r="C37" s="54"/>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
       <c r="H37" s="14"/>
       <c r="I37" s="55"/>
     </row>
@@ -3512,8 +3512,8 @@
       <c r="C38" s="54"/>
       <c r="D38" s="54"/>
       <c r="E38" s="54"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
       <c r="H38" s="14"/>
       <c r="I38" s="55"/>
     </row>
@@ -3523,8 +3523,8 @@
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
       <c r="E39" s="54"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
       <c r="H39" s="14"/>
       <c r="I39" s="55"/>
     </row>
@@ -3534,8 +3534,8 @@
       <c r="C40" s="54"/>
       <c r="D40" s="54"/>
       <c r="E40" s="54"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
       <c r="H40" s="14"/>
       <c r="I40" s="55"/>
     </row>
@@ -3545,8 +3545,8 @@
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
       <c r="E41" s="54"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
       <c r="H41" s="14"/>
       <c r="I41" s="55"/>
     </row>
@@ -3556,8 +3556,8 @@
       <c r="C42" s="54"/>
       <c r="D42" s="54"/>
       <c r="E42" s="54"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
       <c r="H42" s="14"/>
       <c r="I42" s="55"/>
     </row>
@@ -3567,8 +3567,8 @@
       <c r="C43" s="54"/>
       <c r="D43" s="54"/>
       <c r="E43" s="54"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
       <c r="H43" s="14"/>
       <c r="I43" s="55"/>
     </row>
@@ -3578,8 +3578,8 @@
       <c r="C44" s="54"/>
       <c r="D44" s="54"/>
       <c r="E44" s="54"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
       <c r="H44" s="14"/>
       <c r="I44" s="55"/>
     </row>
@@ -3589,53 +3589,53 @@
       <c r="C45" s="66"/>
       <c r="D45" s="66"/>
       <c r="E45" s="66"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
       <c r="H45" s="67"/>
       <c r="I45" s="68"/>
     </row>
     <row r="46" spans="1:9" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="101" t="s">
+      <c r="A46" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="102"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="102"/>
-      <c r="I46" s="103"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="87"/>
     </row>
     <row r="47" spans="1:9" ht="25.8" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="96" t="s">
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="G47" s="97" t="s">
+      <c r="G47" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="H47" s="97"/>
-      <c r="I47" s="98"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="99"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="97"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="98"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="99"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
@@ -3649,36 +3649,36 @@
       </c>
       <c r="D49" s="100"/>
       <c r="E49" s="100"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="98"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="99"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="99" t="s">
+      <c r="A50" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="98"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="99"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="95"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="98"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="99"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
@@ -3690,23 +3690,23 @@
       </c>
       <c r="D52" s="100"/>
       <c r="E52" s="100"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="97"/>
-      <c r="I52" s="98"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="99"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="97"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="98"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="99"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
@@ -3718,10 +3718,10 @@
       </c>
       <c r="D54" s="100"/>
       <c r="E54" s="100"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="98"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="99"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
@@ -3733,53 +3733,53 @@
       </c>
       <c r="D55" s="100"/>
       <c r="E55" s="100"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="98"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="99"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="97"/>
-      <c r="C56" s="97"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="97"/>
-      <c r="H56" s="97"/>
-      <c r="I56" s="98"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="99"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="99" t="s">
+      <c r="A57" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="96" t="s">
+      <c r="B57" s="81"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="G57" s="97" t="s">
+      <c r="G57" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="H57" s="97"/>
-      <c r="I57" s="98"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="99"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="95"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="96"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="97"/>
-      <c r="I58" s="98"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="88"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="99"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
@@ -3791,23 +3791,23 @@
       </c>
       <c r="D59" s="100"/>
       <c r="E59" s="100"/>
-      <c r="F59" s="96"/>
-      <c r="G59" s="97"/>
-      <c r="H59" s="97"/>
-      <c r="I59" s="98"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="99"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="97"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="97"/>
-      <c r="F60" s="96"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="98"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="99"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
@@ -3819,10 +3819,10 @@
       </c>
       <c r="D61" s="100"/>
       <c r="E61" s="100"/>
-      <c r="F61" s="96"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="98"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="99"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
@@ -3834,36 +3834,36 @@
       </c>
       <c r="D62" s="100"/>
       <c r="E62" s="100"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="98"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="99"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B63" s="97"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="97"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="98"/>
+      <c r="B63" s="83"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="99"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="99" t="s">
+      <c r="A64" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="80"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="96"/>
-      <c r="G64" s="97"/>
-      <c r="H64" s="97"/>
-      <c r="I64" s="98"/>
+      <c r="B64" s="81"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="99"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="38" t="s">
@@ -3873,12 +3873,12 @@
       <c r="C65" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="95"/>
-      <c r="E65" s="95"/>
-      <c r="F65" s="96"/>
-      <c r="G65" s="97"/>
-      <c r="H65" s="97"/>
-      <c r="I65" s="98"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="88"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="99"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="38" t="s">
@@ -3886,51 +3886,51 @@
       </c>
       <c r="B66" s="35"/>
       <c r="C66" s="35"/>
-      <c r="D66" s="95"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="96"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="98"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="99"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="64"/>
       <c r="B67" s="62"/>
       <c r="C67" s="62"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="96" t="s">
+      <c r="D67" s="101"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="G67" s="97" t="s">
+      <c r="G67" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="H67" s="97"/>
-      <c r="I67" s="98"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="99"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="64"/>
       <c r="B68" s="62"/>
       <c r="C68" s="62"/>
-      <c r="D68" s="95"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="96"/>
-      <c r="G68" s="97"/>
-      <c r="H68" s="97"/>
-      <c r="I68" s="98"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="99"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="99" t="s">
+      <c r="A69" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="80"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="96"/>
-      <c r="G69" s="97"/>
-      <c r="H69" s="97"/>
-      <c r="I69" s="98"/>
+      <c r="B69" s="81"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
+      <c r="I69" s="99"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="38" t="s">
@@ -3948,10 +3948,10 @@
       <c r="E70" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="96"/>
-      <c r="G70" s="97"/>
-      <c r="H70" s="97"/>
-      <c r="I70" s="98"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="83"/>
+      <c r="I70" s="99"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="46"/>
@@ -3959,10 +3959,10 @@
       <c r="C71" s="36"/>
       <c r="D71" s="61"/>
       <c r="E71" s="60"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="97"/>
-      <c r="H71" s="97"/>
-      <c r="I71" s="98"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
+      <c r="I71" s="99"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
@@ -3970,10 +3970,10 @@
       <c r="C72" s="54"/>
       <c r="D72" s="54"/>
       <c r="E72" s="54"/>
-      <c r="F72" s="96"/>
-      <c r="G72" s="97"/>
-      <c r="H72" s="97"/>
-      <c r="I72" s="98"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
+      <c r="I72" s="99"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
@@ -3981,10 +3981,10 @@
       <c r="C73" s="54"/>
       <c r="D73" s="54"/>
       <c r="E73" s="54"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="97"/>
-      <c r="H73" s="97"/>
-      <c r="I73" s="98"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="99"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="38"/>
@@ -3992,10 +3992,10 @@
       <c r="C74" s="54"/>
       <c r="D74" s="54"/>
       <c r="E74" s="54"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="97"/>
-      <c r="H74" s="97"/>
-      <c r="I74" s="98"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="83"/>
+      <c r="H74" s="83"/>
+      <c r="I74" s="99"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="38"/>
@@ -4003,10 +4003,10 @@
       <c r="C75" s="54"/>
       <c r="D75" s="54"/>
       <c r="E75" s="54"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="97"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="98"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="83"/>
+      <c r="H75" s="83"/>
+      <c r="I75" s="99"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="38"/>
@@ -4014,10 +4014,10 @@
       <c r="C76" s="54"/>
       <c r="D76" s="54"/>
       <c r="E76" s="54"/>
-      <c r="F76" s="96"/>
-      <c r="G76" s="97"/>
-      <c r="H76" s="97"/>
-      <c r="I76" s="98"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="99"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="38"/>
@@ -4025,12 +4025,12 @@
       <c r="C77" s="54"/>
       <c r="D77" s="54"/>
       <c r="E77" s="54"/>
-      <c r="F77" s="80" t="s">
+      <c r="F77" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="G77" s="80"/>
-      <c r="H77" s="80"/>
-      <c r="I77" s="94"/>
+      <c r="G77" s="81"/>
+      <c r="H77" s="81"/>
+      <c r="I77" s="82"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="38"/>
@@ -4038,10 +4038,10 @@
       <c r="C78" s="54"/>
       <c r="D78" s="54"/>
       <c r="E78" s="54"/>
-      <c r="F78" s="80" t="s">
+      <c r="F78" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="G78" s="80"/>
+      <c r="G78" s="81"/>
       <c r="H78" s="14" t="s">
         <v>89</v>
       </c>
@@ -4055,8 +4055,8 @@
       <c r="C79" s="54"/>
       <c r="D79" s="54"/>
       <c r="E79" s="54"/>
-      <c r="F79" s="95"/>
-      <c r="G79" s="95"/>
+      <c r="F79" s="101"/>
+      <c r="G79" s="101"/>
       <c r="H79" s="35"/>
       <c r="I79" s="39"/>
     </row>
@@ -4066,8 +4066,8 @@
       <c r="C80" s="54"/>
       <c r="D80" s="54"/>
       <c r="E80" s="54"/>
-      <c r="F80" s="80"/>
-      <c r="G80" s="80"/>
+      <c r="F80" s="81"/>
+      <c r="G80" s="81"/>
       <c r="H80" s="14"/>
       <c r="I80" s="55"/>
     </row>
@@ -4077,8 +4077,8 @@
       <c r="C81" s="54"/>
       <c r="D81" s="54"/>
       <c r="E81" s="54"/>
-      <c r="F81" s="80"/>
-      <c r="G81" s="80"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="81"/>
       <c r="H81" s="14"/>
       <c r="I81" s="55"/>
     </row>
@@ -4088,8 +4088,8 @@
       <c r="C82" s="54"/>
       <c r="D82" s="54"/>
       <c r="E82" s="54"/>
-      <c r="F82" s="80"/>
-      <c r="G82" s="80"/>
+      <c r="F82" s="81"/>
+      <c r="G82" s="81"/>
       <c r="H82" s="14"/>
       <c r="I82" s="55"/>
     </row>
@@ -4099,8 +4099,8 @@
       <c r="C83" s="54"/>
       <c r="D83" s="54"/>
       <c r="E83" s="54"/>
-      <c r="F83" s="80"/>
-      <c r="G83" s="80"/>
+      <c r="F83" s="81"/>
+      <c r="G83" s="81"/>
       <c r="H83" s="14"/>
       <c r="I83" s="55"/>
     </row>
@@ -4110,8 +4110,8 @@
       <c r="C84" s="54"/>
       <c r="D84" s="54"/>
       <c r="E84" s="54"/>
-      <c r="F84" s="80"/>
-      <c r="G84" s="80"/>
+      <c r="F84" s="81"/>
+      <c r="G84" s="81"/>
       <c r="H84" s="14"/>
       <c r="I84" s="55"/>
     </row>
@@ -4121,8 +4121,8 @@
       <c r="C85" s="54"/>
       <c r="D85" s="54"/>
       <c r="E85" s="54"/>
-      <c r="F85" s="80"/>
-      <c r="G85" s="80"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="81"/>
       <c r="H85" s="14"/>
       <c r="I85" s="55"/>
     </row>
@@ -4132,8 +4132,8 @@
       <c r="C86" s="54"/>
       <c r="D86" s="54"/>
       <c r="E86" s="54"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="80"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="81"/>
       <c r="H86" s="14"/>
       <c r="I86" s="55"/>
     </row>
@@ -4143,8 +4143,8 @@
       <c r="C87" s="54"/>
       <c r="D87" s="54"/>
       <c r="E87" s="54"/>
-      <c r="F87" s="80"/>
-      <c r="G87" s="80"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
       <c r="H87" s="14"/>
       <c r="I87" s="55"/>
     </row>
@@ -4154,8 +4154,8 @@
       <c r="C88" s="54"/>
       <c r="D88" s="54"/>
       <c r="E88" s="54"/>
-      <c r="F88" s="80"/>
-      <c r="G88" s="80"/>
+      <c r="F88" s="81"/>
+      <c r="G88" s="81"/>
       <c r="H88" s="14"/>
       <c r="I88" s="55"/>
     </row>
@@ -4165,8 +4165,8 @@
       <c r="C89" s="54"/>
       <c r="D89" s="54"/>
       <c r="E89" s="54"/>
-      <c r="F89" s="80"/>
-      <c r="G89" s="80"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="81"/>
       <c r="H89" s="14"/>
       <c r="I89" s="55"/>
     </row>
@@ -4176,30 +4176,69 @@
       <c r="C90" s="57"/>
       <c r="D90" s="57"/>
       <c r="E90" s="57"/>
-      <c r="F90" s="81"/>
-      <c r="G90" s="81"/>
+      <c r="F90" s="102"/>
+      <c r="G90" s="102"/>
       <c r="H90" s="58"/>
       <c r="I90" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="G12:I21"/>
-    <mergeCell ref="F22:F31"/>
-    <mergeCell ref="G22:I31"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G2:I11"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="F12:F21"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:F76"/>
+    <mergeCell ref="G67:I76"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="F57:F66"/>
+    <mergeCell ref="G57:I66"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:F56"/>
+    <mergeCell ref="G47:I56"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="B56:E56"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="F45:G45"/>
@@ -4216,62 +4255,23 @@
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:F56"/>
-    <mergeCell ref="G47:I56"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="F57:F66"/>
-    <mergeCell ref="G57:I66"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:F76"/>
-    <mergeCell ref="G67:I76"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="G12:I21"/>
+    <mergeCell ref="F22:F31"/>
+    <mergeCell ref="G22:I31"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G2:I11"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="F12:F21"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions verticalCentered="1"/>
@@ -4285,129 +4285,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="8" spans="9:10" ht="13.8" customHeight="1" x14ac:dyDescent="1.45">
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
     </row>
     <row r="9" spans="9:10" ht="13.8" customHeight="1" x14ac:dyDescent="1.45">
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
     </row>
     <row r="10" spans="9:10" ht="13.8" customHeight="1" x14ac:dyDescent="1.45">
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="9:10" ht="13.8" customHeight="1" x14ac:dyDescent="1.45">
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" spans="9:10" ht="13.8" customHeight="1" x14ac:dyDescent="1.45">
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
     </row>
     <row r="13" spans="9:10" ht="13.8" customHeight="1" x14ac:dyDescent="1.45">
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="9:10" ht="13.8" customHeight="1" x14ac:dyDescent="1.45">
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
     </row>
     <row r="18" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="113" t="s">
+      <c r="A18" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
     </row>
     <row r="19" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="113"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
     </row>
     <row r="20" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
     </row>
     <row r="21" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
     </row>
     <row r="22" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="113"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
+      <c r="A22" s="107"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
     </row>
     <row r="23" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="113"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
     </row>
     <row r="24" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="113"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="113"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4441,20 +4441,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="48.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -4785,36 +4785,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="33" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="108" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4828,11 +4828,11 @@
       <c r="C3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -5244,32 +5244,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="34" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="109"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113"/>
       <c r="E1" s="47"/>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="107" t="s">
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="109"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="113"/>
       <c r="N1" s="47"/>
-      <c r="O1" s="107" t="s">
+      <c r="O1" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="109"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="113"/>
     </row>
     <row r="2" spans="1:18" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -5401,31 +5401,31 @@
       <c r="A5" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="49"/>
       <c r="F5" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="111"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
       <c r="J5" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="111"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="110"/>
       <c r="N5" s="49"/>
       <c r="O5" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="111"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="110"/>
     </row>
     <row r="6" spans="1:18" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
@@ -5661,32 +5661,32 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="113"/>
       <c r="E16" s="47"/>
-      <c r="F16" s="107" t="s">
+      <c r="F16" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="107" t="s">
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="109"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="113"/>
       <c r="N16" s="47"/>
-      <c r="O16" s="107" t="s">
+      <c r="O16" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="109"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="113"/>
     </row>
     <row r="17" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
@@ -5808,29 +5808,29 @@
       <c r="A20" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
       <c r="E20" s="49"/>
       <c r="F20" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="111"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="110"/>
       <c r="J20" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="111"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="110"/>
       <c r="N20" s="49"/>
       <c r="O20" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="111"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="110"/>
     </row>
     <row r="21" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
@@ -6050,32 +6050,32 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="107" t="s">
+      <c r="A31" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="109"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="113"/>
       <c r="E31" s="47"/>
-      <c r="F31" s="107" t="s">
+      <c r="F31" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="107" t="s">
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="109"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="113"/>
       <c r="N31" s="47"/>
-      <c r="O31" s="107" t="s">
+      <c r="O31" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="P31" s="108"/>
-      <c r="Q31" s="108"/>
-      <c r="R31" s="109"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="113"/>
     </row>
     <row r="32" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="38" t="s">
@@ -6197,29 +6197,29 @@
       <c r="A35" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="111"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="110"/>
       <c r="E35" s="49"/>
       <c r="F35" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="111"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="110"/>
       <c r="J35" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="111"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="110"/>
       <c r="N35" s="49"/>
       <c r="O35" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="111"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="110"/>
     </row>
     <row r="36" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
@@ -6434,32 +6434,32 @@
       <c r="R44" s="45"/>
     </row>
     <row r="45" spans="1:18" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="107" t="s">
+      <c r="A45" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="108"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="109"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="113"/>
       <c r="E45" s="47"/>
-      <c r="F45" s="107" t="s">
+      <c r="F45" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="108"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="107" t="s">
+      <c r="G45" s="112"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="K45" s="108"/>
-      <c r="L45" s="108"/>
-      <c r="M45" s="109"/>
+      <c r="K45" s="112"/>
+      <c r="L45" s="112"/>
+      <c r="M45" s="113"/>
       <c r="N45" s="47"/>
-      <c r="O45" s="107" t="s">
+      <c r="O45" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="P45" s="108"/>
-      <c r="Q45" s="108"/>
-      <c r="R45" s="109"/>
+      <c r="P45" s="112"/>
+      <c r="Q45" s="112"/>
+      <c r="R45" s="113"/>
     </row>
     <row r="46" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
@@ -6581,29 +6581,29 @@
       <c r="A49" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="110"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="111"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="110"/>
       <c r="E49" s="49"/>
       <c r="F49" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="111"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="110"/>
       <c r="J49" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K49" s="110"/>
-      <c r="L49" s="110"/>
-      <c r="M49" s="111"/>
+      <c r="K49" s="109"/>
+      <c r="L49" s="109"/>
+      <c r="M49" s="110"/>
       <c r="N49" s="49"/>
       <c r="O49" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P49" s="110"/>
-      <c r="Q49" s="110"/>
-      <c r="R49" s="111"/>
+      <c r="P49" s="109"/>
+      <c r="Q49" s="109"/>
+      <c r="R49" s="110"/>
     </row>
     <row r="50" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
@@ -6823,32 +6823,32 @@
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="1:18" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="107" t="s">
+      <c r="A60" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="108"/>
-      <c r="C60" s="108"/>
-      <c r="D60" s="109"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="113"/>
       <c r="E60" s="47"/>
-      <c r="F60" s="107" t="s">
+      <c r="F60" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="G60" s="108"/>
-      <c r="H60" s="108"/>
-      <c r="I60" s="109"/>
-      <c r="J60" s="107" t="s">
+      <c r="G60" s="112"/>
+      <c r="H60" s="112"/>
+      <c r="I60" s="113"/>
+      <c r="J60" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="K60" s="108"/>
-      <c r="L60" s="108"/>
-      <c r="M60" s="109"/>
+      <c r="K60" s="112"/>
+      <c r="L60" s="112"/>
+      <c r="M60" s="113"/>
       <c r="N60" s="47"/>
-      <c r="O60" s="107" t="s">
+      <c r="O60" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="P60" s="108"/>
-      <c r="Q60" s="108"/>
-      <c r="R60" s="109"/>
+      <c r="P60" s="112"/>
+      <c r="Q60" s="112"/>
+      <c r="R60" s="113"/>
     </row>
     <row r="61" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
@@ -6970,29 +6970,29 @@
       <c r="A64" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="110"/>
-      <c r="C64" s="110"/>
-      <c r="D64" s="111"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="110"/>
       <c r="E64" s="49"/>
       <c r="F64" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G64" s="110"/>
-      <c r="H64" s="110"/>
-      <c r="I64" s="111"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="110"/>
       <c r="J64" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K64" s="110"/>
-      <c r="L64" s="110"/>
-      <c r="M64" s="111"/>
+      <c r="K64" s="109"/>
+      <c r="L64" s="109"/>
+      <c r="M64" s="110"/>
       <c r="N64" s="49"/>
       <c r="O64" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P64" s="110"/>
-      <c r="Q64" s="110"/>
-      <c r="R64" s="111"/>
+      <c r="P64" s="109"/>
+      <c r="Q64" s="109"/>
+      <c r="R64" s="110"/>
     </row>
     <row r="65" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="38" t="s">
@@ -7212,32 +7212,32 @@
       <c r="N74" s="1"/>
     </row>
     <row r="75" spans="1:18" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="107" t="s">
+      <c r="A75" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="B75" s="108"/>
-      <c r="C75" s="108"/>
-      <c r="D75" s="109"/>
+      <c r="B75" s="112"/>
+      <c r="C75" s="112"/>
+      <c r="D75" s="113"/>
       <c r="E75" s="47"/>
-      <c r="F75" s="107" t="s">
+      <c r="F75" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="G75" s="108"/>
-      <c r="H75" s="108"/>
-      <c r="I75" s="109"/>
-      <c r="J75" s="107" t="s">
+      <c r="G75" s="112"/>
+      <c r="H75" s="112"/>
+      <c r="I75" s="113"/>
+      <c r="J75" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="K75" s="108"/>
-      <c r="L75" s="108"/>
-      <c r="M75" s="109"/>
+      <c r="K75" s="112"/>
+      <c r="L75" s="112"/>
+      <c r="M75" s="113"/>
       <c r="N75" s="47"/>
-      <c r="O75" s="107" t="s">
+      <c r="O75" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="P75" s="108"/>
-      <c r="Q75" s="108"/>
-      <c r="R75" s="109"/>
+      <c r="P75" s="112"/>
+      <c r="Q75" s="112"/>
+      <c r="R75" s="113"/>
     </row>
     <row r="76" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
@@ -7359,29 +7359,29 @@
       <c r="A79" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B79" s="110"/>
-      <c r="C79" s="110"/>
-      <c r="D79" s="111"/>
+      <c r="B79" s="109"/>
+      <c r="C79" s="109"/>
+      <c r="D79" s="110"/>
       <c r="E79" s="49"/>
       <c r="F79" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G79" s="110"/>
-      <c r="H79" s="110"/>
-      <c r="I79" s="111"/>
+      <c r="G79" s="109"/>
+      <c r="H79" s="109"/>
+      <c r="I79" s="110"/>
       <c r="J79" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K79" s="110"/>
-      <c r="L79" s="110"/>
-      <c r="M79" s="111"/>
+      <c r="K79" s="109"/>
+      <c r="L79" s="109"/>
+      <c r="M79" s="110"/>
       <c r="N79" s="49"/>
       <c r="O79" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P79" s="110"/>
-      <c r="Q79" s="110"/>
-      <c r="R79" s="111"/>
+      <c r="P79" s="109"/>
+      <c r="Q79" s="109"/>
+      <c r="R79" s="110"/>
     </row>
     <row r="80" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
@@ -7597,6 +7597,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="O45:R45"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="O60:R60"/>
     <mergeCell ref="B79:D79"/>
     <mergeCell ref="G79:I79"/>
     <mergeCell ref="K79:M79"/>
@@ -7609,42 +7645,6 @@
     <mergeCell ref="F75:I75"/>
     <mergeCell ref="J75:M75"/>
     <mergeCell ref="O75:R75"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="O45:R45"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.11811023622047244" right="0.11811023622047244" top="0.11811023622047244" bottom="0.11811023622047244" header="0" footer="0"/>
